--- a/EXCEL FILES/Export_SQL_Parameter_ExcelFile.xlsx
+++ b/EXCEL FILES/Export_SQL_Parameter_ExcelFile.xlsx
@@ -23,7 +23,7 @@
     <t>Exported_SQL_Parameter_Name</t>
   </si>
   <si>
-    <t>IMPORT_CUSTOMER_INFO</t>
+    <t>PortfolioCreditSpreadRisk_ExcelFile_creation</t>
   </si>
   <si>
     <t>Exported_SQL_Parameter_ID</t>
@@ -110,16 +110,16 @@
     <t>Y</t>
   </si>
   <si>
-    <t>MANUAL_IMPORTS</t>
+    <t>EXCEL_FILES_CREATION</t>
   </si>
   <si>
     <t>SQL</t>
   </si>
   <si>
-    <t>ADDED</t>
-  </si>
-  <si>
-    <t>Administrator</t>
+    <t>Added</t>
+  </si>
+  <si>
+    <t>Paskalis</t>
   </si>
   <si>
     <t>Exported_Commands_from_SQL_Table</t>
@@ -129,12 +129,726 @@
   </si>
   <si>
     <t>Id_SQL_Parameters_Details</t>
+  </si>
+  <si>
+    <t>Create Portfolio Credit Spread Risk Excel File with formulas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imports System.Text_x000d_
+Imports System.Windows.Forms_x000d_
+Imports DevExpress.Spreadsheet_x000d_
+_x000d_
+Public Class CREDIT_SPREAD_RISK_DETAILS_WORKSHEET_x000d_
+    Inherits System.Windows.Forms.Form_x000d_
+_x000d_
+Private Shared Sub VB_ScriptForExecution()_x000d_
+_x000d_
+Dim conndt As New SqlConnection_x000d_
+Dim da As New SqlDataAdapter_x000d_
+Dim dt As New System.Data.DataTable_x000d_
+Dim da1 As New SqlDataAdapter_x000d_
+Dim dt1 As New System.Data.DataTable_x000d_
+Dim da2 As New SqlDataAdapter_x000d_
+Dim dt2 As New System.Data.DataTable_x000d_
+Dim da3 As New SqlDataAdapter_x000d_
+Dim dt3 As New System.Data.DataTable_x000d_
+Dim QueryText As String = Nothing_x000d_
+_x000d_
+Dim conn As New SqlConnection_x000d_
+Dim cmd As New SqlCommand_x000d_
+_x000d_
+conn.ConnectionString = "Data Source=&lt;SQL_SERVER&gt;;Initial Catalog=&lt;SQL_DATABASE&gt;;Integrated Security=True;Connection Timeout=60"_x000d_
+cmd.Connection = conn_x000d_
+cmd.CommandTimeout = 60000_x000d_
+_x000d_
+cmd.Connection.Open()_x000d_
+_x000d_
+'Set Dates_x000d_
+Dim rdString as String="&lt;rd&gt;"_x000d_
+Dim rd As Date = CDate(rdString)_x000d_
+Dim rdsql as String="&lt;rdsql&gt;"_x000d_
+_x000d_
+Dim EXCEL_FILE_DIRECTORY as String="&lt;IMPORT_DIR_FILE&gt;"_x000d_
+_x000d_
+Dim workbook As New DevExpress.Spreadsheet.Workbook()_x000d_
+workbook.LoadDocument(EXCEL_FILE_DIRECTORY, DevExpress.Spreadsheet.DocumentFormat.Xlsx)_x000d_
+Dim worksheets As WorksheetCollection = workbook.Worksheets_x000d_
+Dim worksheet As DevExpress.Spreadsheet.Worksheet = workbook.Worksheets("Parameter")_x000d_
+Dim WsCorl As DevExpress.Spreadsheet.Worksheet = workbook.Worksheets("Correlations")_x000d_
+Dim WsCalc As DevExpress.Spreadsheet.Worksheet = workbook.Worksheets("Result")_x000d_
+_x000d_
+' Delete the "MatrixCalculations" worksheet from the workbook. _x000d_
+workbook.Worksheets.Remove(workbook.Worksheets("MatrixCalculations"))_x000d_
+workbook.Worksheets.Insert(1, "MatrixCalculations")_x000d_
+Dim WsMatrixCalc As DevExpress.Spreadsheet.Worksheet = workbook.Worksheets("MatrixCalculations")_x000d_
+_x000d_
+worksheet.Clear(worksheet("A1:AZ10000"))_x000d_
+worksheet.DefinedNames.Clear()_x000d_
+_x000d_
+WsCorl.Clear(WsCorl("A1:AZ10000"))_x000d_
+WsCorl.DefinedNames.Clear()_x000d_
+_x000d_
+WsCalc.Clear(WsCalc("A1:AZ10000"))_x000d_
+WsCalc.DefinedNames.Clear()_x000d_
+_x000d_
+WsMatrixCalc.Clear(WsMatrixCalc("A1:AZ10000"))_x000d_
+WsMatrixCalc.Columns.UnGroup(0, 5000, True)_x000d_
+WsMatrixCalc.Rows.UnGroup(0, 5000, True)_x000d_
+WsMatrixCalc.DefinedNames.Clear()_x000d_
+_x000d_
+workbook.Worksheets.ActiveWorksheet = workbook.Worksheets("Result")_x000d_
+_x000d_
+_x000d_
+'RISK WEIGHT PARAMETERS_x000d_
+worksheet.MergeCells(worksheet.Range("A1:G1"))_x000d_
+Worksheet.Cells("A1").Value = "Risk Weight - Rating Class - Sector"_x000d_
+Dim cell As Cell = worksheet.Cells("A1")_x000d_
+cell.Fill.BackgroundColor = Color.Yellow_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+_x000d_
+_x000d_
+QueryText = "SELECT [ParameterNr] as 'Nr.',[ParameterNameGeneral] as 'General Parameter Name',[ParameterName1] as 'Rating Class',[ParameterName2] as 'Sector',[ParameterValue1] as 'Segment',[ParameterValue2] as 'Risk Weight',[ParameterStatus] FROM [Parameter_CreditSpreadRisk_References] where [ParameterStatus] in ('Y') and ParameterNameGeneral in ('Risk_Weight_by_Issuer_Rating_Class_and_Sector') Order by ParameterNr asc" _x000d_
+da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
+dt = New System.Data.DataTable()_x000d_
+da.Fill(dt)_x000d_
+worksheet.Import(dt, True, 1, 0)_x000d_
+_x000d_
+Dim RiskWeight_DETAILS_LastRow As Integer = 0_x000d_
+If dt.Rows.Count &gt; 0 Then_x000d_
+RiskWeight_DETAILS_LastRow = dt.Rows.Count + 2_x000d_
+End If_x000d_
+_x000d_
+_x000d_
+Dim RiskWeightRange as CellRange=worksheet.Range("A3:G"&amp; RiskWeight_DETAILS_LastRow)_x000d_
+RiskWeightRange.Name="RiskWeight_Parameters"_x000d_
+_x000d_
+Dim RiskWeightRangeBorders as CellRange=worksheet.Range("A1:G"&amp; RiskWeight_DETAILS_LastRow)_x000d_
+RiskWeightRangeBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+Dim RiskWeightHeaders as CellRange=worksheet.Range("A2:G2")_x000d_
+RiskWeightHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
+_x000d_
+Dim RiskWeightValues as CellRange=worksheet.Range("F3:F"&amp; RiskWeight_DETAILS_LastRow)_x000d_
+RiskWeightValues.NumberFormat="#,##"_x000d_
+_x000d_
+dt.reset()_x000d_
+RiskWeight_DETAILS_LastRow=0_x000d_
+'++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
+_x000d_
+'TENOR PARAMETERS_x000d_
+worksheet.MergeCells(worksheet.Range("I1:O1"))_x000d_
+Worksheet.Cells("I1").Value = "Tenor"_x000d_
+Cell = worksheet.Cells("I1")_x000d_
+cell.Fill.BackgroundColor = Color.Yellow_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+_x000d_
+_x000d_
+QueryText = "SELECT [ParameterNr] as 'Nr.',[ParameterNameGeneral] as 'General Parameter Name',[ParameterName1] as 'Tenor Period',[ParameterName2] as 'Tenor Period Description',[ParameterValue1] as 'Min',[ParameterValue2] as 'Max',[ParameterStatus] FROM [Parameter_CreditSpreadRisk_References] where [ParameterStatus] in ('Y') and ParameterNameGeneral in ('Tenor') Order by ParameterNr asc" _x000d_
+da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
+dt = New System.Data.DataTable()_x000d_
+da.Fill(dt)_x000d_
+worksheet.Import(dt, True, 1, 8)_x000d_
+_x000d_
+Dim DETAILS_LastRow As Integer = 0_x000d_
+If dt.Rows.Count &gt; 0 Then_x000d_
+DETAILS_LastRow = dt.Rows.Count + 2_x000d_
+End If_x000d_
+_x000d_
+_x000d_
+Dim TenorRange as CellRange=worksheet.Range("I3:O" &amp; DETAILS_LastRow)_x000d_
+TenorRange.Name="Tenor_Parameters"_x000d_
+_x000d_
+Dim TenorRangeBorders as CellRange=worksheet.Range("I1:O"&amp; DETAILS_LastRow)_x000d_
+TenorRangeBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+Dim TenorHeaders as CellRange=worksheet.Range("I2:O2")_x000d_
+TenorHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
+_x000d_
+Dim TenorValues as CellRange=worksheet.Range("M3:N"&amp; DETAILS_LastRow)_x000d_
+TenorValues.NumberFormat="0.00"_x000d_
+_x000d_
+_x000d_
+dt.reset()_x000d_
+Dim TenorDetails_LastRow as integer=DETAILS_LastRow_x000d_
+DETAILS_LastRow=0_x000d_
+'+++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
+_x000d_
+'CORRELATIONS BETWEEN 2 RISK POSITIONS_x000d_
+worksheet.MergeCells(worksheet.Range("I" &amp; TenorDetails_LastRow+2 &amp;":O" &amp; TenorDetails_LastRow+2))_x000d_
+Worksheet.Cells("I" &amp; TenorDetails_LastRow+2).Value = "Correlation between two risk positions"_x000d_
+Cell = worksheet.Cells("I" &amp; TenorDetails_LastRow+2)_x000d_
+cell.Fill.BackgroundColor = Color.Yellow_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+_x000d_
+QueryText = "SELECT [ParameterNr] as 'Nr.',[ParameterNameGeneral] as 'General Parameter Name',[ParameterName1] as 'Correlation Type',[ParameterName2] as 'Correlation Type Description',[ParameterValue1] as 'Same',[ParameterValue2] as 'Not Same',[ParameterStatus] FROM [Parameter_CreditSpreadRisk_References] where [ParameterStatus] in ('Y') and ParameterNameGeneral in ('Correlation_between_two_risk_positions') Order by ParameterNr asc" _x000d_
+da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
+dt = New System.Data.DataTable()_x000d_
+da.Fill(dt)_x000d_
+worksheet.Import(dt, True, TenorDetails_LastRow+2, 8)_x000d_
+_x000d_
+If dt.Rows.Count &gt; 0 Then_x000d_
+DETAILS_LastRow = TenorDetails_LastRow+3 +  dt.Rows.Count_x000d_
+End If_x000d_
+_x000d_
+Dim CorrelationRiskPositionsRange as CellRange=worksheet.Range("I" &amp; TenorDetails_LastRow + 4 &amp;":O" &amp; DETAILS_LastRow)_x000d_
+CorrelationRiskPositionsRange.Name="CorrelationRiskPositions_Parameters"_x000d_
+_x000d_
+Dim CorrelationRiskPositionsBorders as CellRange=worksheet.Range("I" &amp; TenorDetails_LastRow + 2 &amp;":O" &amp; DETAILS_LastRow)_x000d_
+CorrelationRiskPositionsBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+Dim CorrelationRiskPositionsHeaders as CellRange=worksheet.Range("I10:O10")_x000d_
+CorrelationRiskPositionsHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
+_x000d_
+Dim CorrelationRiskPositionsValues as CellRange=worksheet.Range("M11:N"&amp; DETAILS_LastRow)_x000d_
+CorrelationRiskPositionsValues.NumberFormat="0.00 %"_x000d_
+_x000d_
+_x000d_
+dt.reset()_x000d_
+Dim CorrelationRiskPositions_LastRow as integer=DETAILS_LastRow_x000d_
+DETAILS_LastRow=0_x000d_
+_x000d_
+'++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
+'CURVE TYPES_x000d_
+worksheet.MergeCells(worksheet.Range("I" &amp; CorrelationRiskPositions_LastRow+2 &amp;":M" &amp; CorrelationRiskPositions_LastRow+2))_x000d_
+Worksheet.Cells("I" &amp; CorrelationRiskPositions_LastRow+2).Value = "Curve Types"_x000d_
+Cell = worksheet.Cells("I" &amp; CorrelationRiskPositions_LastRow+2)_x000d_
+cell.Fill.BackgroundColor = Color.Yellow_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+_x000d_
+QueryText = "SELECT [ParameterNr] as 'Nr.',[ParameterNameGeneral] as 'General Parameter Name',[ParameterName1] as 'Curve Type',[ParameterName2] as 'Curve Type Description',[ParameterStatus] FROM [Parameter_CreditSpreadRisk_References] where [ParameterStatus] in ('Y') and ParameterNameGeneral in ('Curve_Type') Order by ParameterNr asc" _x000d_
+da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
+dt = New System.Data.DataTable()_x000d_
+da.Fill(dt)_x000d_
+worksheet.Import(dt, True, CorrelationRiskPositions_LastRow+2, 8)_x000d_
+_x000d_
+If dt.Rows.Count &gt; 0 Then_x000d_
+DETAILS_LastRow = CorrelationRiskPositions_LastRow+3 +  dt.Rows.Count_x000d_
+End If_x000d_
+_x000d_
+Dim CurveTypeRange as CellRange=worksheet.Range("I" &amp; CorrelationRiskPositions_LastRow + 4 &amp;":M" &amp; DETAILS_LastRow)_x000d_
+CurveTypeRange.Name="CurveType_Parameters"_x000d_
+_x000d_
+Dim CurveTypeRangeBorders as CellRange=worksheet.Range("I" &amp; CorrelationRiskPositions_LastRow + 2 &amp;":M" &amp; DETAILS_LastRow)_x000d_
+CurveTypeRangeBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+Dim CurveTypeHeaders as CellRange=worksheet.Range("I16:M16")_x000d_
+CurveTypeHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
+_x000d_
+_x000d_
+dt.reset()_x000d_
+Dim CurveType_LastRow as integer=DETAILS_LastRow_x000d_
+DETAILS_LastRow=0_x000d_
+'++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
+'SCALING PARAMETERS_x000d_
+worksheet.MergeCells(worksheet.Range("I" &amp; CurveType_LastRow+2 &amp;":M" &amp; CurveType_LastRow+2))_x000d_
+Worksheet.Cells("I" &amp; CurveType_LastRow+2).Value = "Scaling Parameter Levels"_x000d_
+Cell = worksheet.Cells("I" &amp; CurveType_LastRow+2)_x000d_
+cell.Fill.BackgroundColor = Color.Yellow_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+_x000d_
+QueryText = "SELECT [ParameterNr] as 'Nr.',[ParameterNameGeneral] as 'General Parameter Name',[ParameterName1] as 'Scaling Level',[ParameterValue1] as 'Level Value',[ParameterStatus] FROM [Parameter_CreditSpreadRisk_References] where [ParameterStatus] in ('Y') and ParameterNameGeneral in ('Scaling_Parameter_Levels') Order by ParameterNr asc" _x000d_
+da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
+dt = New System.Data.DataTable()_x000d_
+da.Fill(dt)_x000d_
+worksheet.Import(dt, True, CurveType_LastRow+2, 8)_x000d_
+_x000d_
+If dt.Rows.Count &gt; 0 Then_x000d_
+DETAILS_LastRow = CurveType_LastRow+3 +  dt.Rows.Count_x000d_
+End If_x000d_
+_x000d_
+Dim ScalingParameterRange as CellRange=worksheet.Range("I" &amp; CurveType_LastRow + 4 &amp;":M" &amp; DETAILS_LastRow)_x000d_
+ScalingParameterRange.Name="Scaling_Level_Parameters"_x000d_
+_x000d_
+Dim ScalingParameterRangeBorders as CellRange=worksheet.Range("I" &amp; CurveType_LastRow + 2 &amp;":M" &amp; DETAILS_LastRow)_x000d_
+ScalingParameterRangeBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+Dim ScalingHeaders as CellRange=worksheet.Range("I22:M22")_x000d_
+ScalingHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
+_x000d_
+_x000d_
+dt.reset()_x000d_
+DETAILS_LastRow=0_x000d_
+_x000d_
+'++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
+worksheet.MergeCells(worksheet.Range("Q1:AG1"))_x000d_
+Worksheet.Cells("Q1").Value = "Segments Correlations"_x000d_
+Cell = worksheet.Cells("Q1")_x000d_
+cell.Fill.BackgroundColor = Color.Yellow_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+_x000d_
+QueryText = "SELECT [SeqNr] as 'Sequence Correlations',[SeqNr1] as '1',[SeqNr2] as '2',[SeqNr3] as '3',[SeqNr4] as '4',[SeqNr5] as '5',[SeqNr6] as '6',[SeqNr7] as '7',[SeqNr8] as '8',[SeqNr9] as '9',[SeqNr10] as '10',[SeqNr11] as '11',[SeqNr12] as '12',[SeqNr13] as '13',[SeqNr14] as '14',[SeqNr15] as '15',[SeqNr16] as '16' FROM [Parameter_CreditSpreadRisk_Correlations] ORDER BY SeqNr asc" _x000d_
+da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
+dt = New System.Data.DataTable()_x000d_
+da.Fill(dt)_x000d_
+worksheet.Import(dt, True, 1, 16)_x000d_
+_x000d_
+worksheet.Cells("R2").SetValueFromText("1", True)_x000d_
+worksheet.Cells("S2").SetValueFromText("2", True)_x000d_
+worksheet.Cells("T2").SetValueFromText("3", True)_x000d_
+worksheet.Cells("U2").SetValueFromText("4", True)_x000d_
+worksheet.Cells("V2").SetValueFromText("5", True)_x000d_
+worksheet.Cells("W2").SetValueFromText("6", True)_x000d_
+worksheet.Cells("X2").SetValueFromText("7", True)_x000d_
+worksheet.Cells("Y2").SetValueFromText("8", True)_x000d_
+worksheet.Cells("Z2").SetValueFromText("9", True)_x000d_
+worksheet.Cells("AA2").SetValueFromText("10", True)_x000d_
+worksheet.Cells("AB2").SetValueFromText("11", True)_x000d_
+worksheet.Cells("AC2").SetValueFromText("12", True)_x000d_
+worksheet.Cells("AD2").SetValueFromText("13", True)_x000d_
+worksheet.Cells("AE2").SetValueFromText("14", True)_x000d_
+worksheet.Cells("AF2").SetValueFromText("15", True)_x000d_
+worksheet.Cells("AG2").SetValueFromText("16", True)_x000d_
+_x000d_
+_x000d_
+If dt.Rows.Count &gt; 0 Then_x000d_
+DETAILS_LastRow = dt.Rows.Count + 2_x000d_
+End If_x000d_
+_x000d_
+_x000d_
+Dim SegmentsCorrelationsRange as CellRange=worksheet.Range("Q2:AG"&amp; DETAILS_LastRow)_x000d_
+SegmentsCorrelationsRange.Name="SegmentsCorrelations_Parameters"_x000d_
+_x000d_
+Dim SegmentCorrelationBorders as CellRange=worksheet.Range("Q1:AG"&amp; DETAILS_LastRow)_x000d_
+SegmentCorrelationBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+Dim SegmentCorrelationHeaders as CellRange=worksheet.Range("Q2:AG2")_x000d_
+SegmentCorrelationHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
+_x000d_
+Dim SegmentCorrelationRows as CellRange=worksheet.Range("Q2:Q"&amp; DETAILS_LastRow)_x000d_
+SegmentCorrelationRows.Fill.BackgroundColor=Color.LightBlue_x000d_
+_x000d_
+Dim SegmentCorrelationValues as CellRange=worksheet.Range("R3:AG"&amp; DETAILS_LastRow)_x000d_
+SegmentCorrelationValues.NumberFormat="0.00 %"_x000d_
+_x000d_
+_x000d_
+dt.reset()_x000d_
+DETAILS_LastRow=0_x000d_
+_x000d_
+Dim worksheet_TotalRange as CellRange=worksheet.Range("A1:AZ20000")_x000d_
+worksheet_TotalRange.AutoFitColumns()_x000d_
+_x000d_
+_x000d_
+'++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
+'CORRELATIONS DATA_x000d_
+WsCorl.MergeCells(WsCorl.Range("A1:N1"))_x000d_
+WsCorl.Cells("A1").Value = "Correlation Data for " &amp; rd_x000d_
+Cell = WsCorl.Cells("A1")_x000d_
+cell.Fill.BackgroundColor = Color.Yellow_x000d_
+cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+cell.Font.Size = 14 _x000d_
+cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
+Dim cellA1_Corl_Borders As DevExpress.Spreadsheet.Borders = cell.Borders_x000d_
+cellA1_Corl_Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+QueryText = "SELECT [EMMITENT_A] ,[EMMITENT_B],[ISIN_A],[ISIN_B],[TENOR_A],[TENOR_B],[CURVE_A],[CURVE_B],[SEGMENT_A],[SEGMENT_B],[Correlation_Name] as K_Name,[Correlation_Tenor] as K_Tenor,[Correlation_Basis] as K_Basis,[CorrelationValue] FROM [CreditSpreadRisk_SingleAssetsCorrelation] where RiskDate='" &amp; rdsql &amp;"' order by ID asc" _x000d_
+da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
+dt = New System.Data.DataTable()_x000d_
+da.Fill(dt)_x000d_
+WsCorl.Import(dt, True, 1, 0)_x000d_
+_x000d_
+Dim CorrelationsData_DETAILS_LastRow as integer=0_x000d_
+If dt.Rows.Count &gt; 0 Then_x000d_
+CorrelationsData_DETAILS_LastRow = dt.Rows.Count + 2_x000d_
+End If_x000d_
+_x000d_
+Dim CorrelationsDataRange as CellRange=WsCorl.Range("A3:N"&amp; CorrelationsData_DETAILS_LastRow)_x000d_
+CorrelationsDataRange.Name="CorrelationData"_x000d_
+_x000d_
+Dim CorrelationsDataBorders as CellRange=WsCorl.Range("A1:N"&amp; CorrelationsData_DETAILS_LastRow)_x000d_
+CorrelationsDataBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+Dim CorrelationsDataHeaders as CellRange=WsCorl.Range("A2:N2")_x000d_
+CorrelationsDataHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
+_x000d_
+Dim CorrelationsDataValues as CellRange=WsCorl.Range("K3:N"&amp; CorrelationsData_DETAILS_LastRow)_x000d_
+CorrelationsDataValues.NumberFormat="0.00 %"_x000d_
+_x000d_
+_x000d_
+dt.reset()_x000d_
+_x000d_
+Dim WsCorl_TotalRange as CellRange=WsCorl.Range("A1:AZ20000")_x000d_
+WsCorl_TotalRange.AutoFitColumns()_x000d_
+_x000d_
+_x000d_
+'+++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
+'MATRIX CALCULATIONS_x000d_
+'Single Asset x Correlation Value_x000d_
+WsMatrixCalc.MergeCells(WsMatrixCalc.Range("A1:H1"))_x000d_
+WsMatrixCalc.Cells("A1").Value = "Single Asset x Correlation Value for " &amp; rd_x000d_
+Cell = WsMatrixCalc.Cells("A1")_x000d_
+cell.Fill.BackgroundColor = Color.Yellow_x000d_
+cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+cell.Font.Size = 14 _x000d_
+cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
+Dim WsMatrixCalc_cellA1Borders As DevExpress.Spreadsheet.Borders = cell.Borders_x000d_
+WsMatrixCalc_cellA1Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+QueryText = "SELECT [RowNr],[ColNr],[FieldName2] as ISINS,[FieldValue1] as SingleAssetRisk,[FieldName5] as ISIN_A,[FieldName7] as ISIN_B,[FieldValue2] as CorrelationValue,[ResultFieldValue] as MidVec FROM [CreditSpreadRisk_MatrixCorrelationCalculations] where [CalculationDescription] in ('Calculation_Single_Asset_MidVec') and [RiskDate]='" &amp; rdsql &amp; "' order by ID asc" _x000d_
+da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
+dt = New System.Data.DataTable()_x000d_
+da.Fill(dt)_x000d_
+WsMatrixCalc.Import(dt, True, 1, 0)_x000d_
+_x000d_
+Dim SingleAsset_CorrelationValue_DETAILS_LastRow as integer=0_x000d_
+If dt.Rows.Count &gt; 0 Then_x000d_
+SingleAsset_CorrelationValue_DETAILS_LastRow = dt.Rows.Count + 2_x000d_
+End If_x000d_
+_x000d_
+Dim SingleAsset_CorrelationValueRange as CellRange=WsMatrixCalc.Range("A2:H"&amp; SingleAsset_CorrelationValue_DETAILS_LastRow)_x000d_
+SingleAsset_CorrelationValueRange.Name="SingleAsset_CorrelationValue"_x000d_
+_x000d_
+Dim SingleAsset_CorrelationValueBorders as CellRange=WsMatrixCalc.Range("A1:H"&amp; SingleAsset_CorrelationValue_DETAILS_LastRow)_x000d_
+SingleAsset_CorrelationValueBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+Dim SingleAsset_CorrelationValueHeaders as CellRange=WsMatrixCalc.Range("A2:H2")_x000d_
+SingleAsset_CorrelationValueHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
+_x000d_
+Dim WsMatrixCalc_SingleAssetDataValues as CellRange=WsMatrixCalc.Range("D3:D"&amp; SingleAsset_CorrelationValue_DETAILS_LastRow)_x000d_
+WsMatrixCalc_SingleAssetDataValues.NumberFormat="#,##"_x000d_
+_x000d_
+Dim WsMatrixCalc_CorrelationsDataValues as CellRange=WsMatrixCalc.Range("G3:G"&amp; SingleAsset_CorrelationValue_DETAILS_LastRow)_x000d_
+WsMatrixCalc_CorrelationsDataValues.NumberFormat="0.00 %"_x000d_
+_x000d_
+Dim WsMatrixCalc_MidVecValues as CellRange=WsMatrixCalc.Range("H3:H"&amp; SingleAsset_CorrelationValue_DETAILS_LastRow)_x000d_
+WsMatrixCalc_MidVecValues.NumberFormat="#,##"_x000d_
+_x000d_
+Dim subtotalColumnsList As New List(Of Integer)()_x000d_
+subtotalColumnsList.Add(7)_x000d_
+WsMatrixCalc.Subtotal(SingleAsset_CorrelationValueRange, 4, subtotalColumnsList, 9, "Total")_x000d_
+_x000d_
+Dim WsMatrixCalc_DataRange As CellRange = WsMatrixCalc.GetUsedRange()_x000d_
+Dim WsMatrixCalc_LastRowIndex As Integer = WsMatrixCalc_DataRange.BottomRowIndex_x000d_
+_x000d_
+dt.reset()_x000d_
+_x000d_
+'Single Segment x MidVec_x000d_
+WsMatrixCalc.MergeCells(WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +3 &amp;":G" &amp; WsMatrixCalc_LastRowIndex+3))_x000d_
+WsMatrixCalc.Cells("A" &amp; WsMatrixCalc_LastRowIndex +3).Value = "Single Segment x MidVec for " &amp; rd_x000d_
+Cell = WsMatrixCalc.Cells("A" &amp; WsMatrixCalc_LastRowIndex +3)_x000d_
+cell.Fill.BackgroundColor = Color.Yellow_x000d_
+cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+cell.Font.Size = 14 _x000d_
+cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
+Dim WsMatrixCalc_cellA2Borders As DevExpress.Spreadsheet.Borders = cell.Borders_x000d_
+WsMatrixCalc_cellA2Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+QueryText = "SELECT [RowNr],[ColNr],[FieldName2] as ISIN,[FieldValue1] as SEGMENT,[FieldValue2] as SingleAssetRisk,[FieldValue4] as SumMidVec,[ResultFieldValue] as SingleSegmentMidVec FROM [CreditSpreadRisk_MatrixCorrelationCalculations] where CalculationDescription in ('Calculation_Single_Segment_MidVec') and [RiskDate]='" &amp; rdsql &amp; "' order by ID asc" _x000d_
+da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
+dt = New System.Data.DataTable()_x000d_
+da.Fill(dt)_x000d_
+WsMatrixCalc.Import(dt, True, WsMatrixCalc_LastRowIndex +3, 0)_x000d_
+_x000d_
+Dim SingleSegment_MidVecValue_DETAILS_LastRow as integer=0_x000d_
+If dt.Rows.Count &gt; 0 Then_x000d_
+SingleSegment_MidVecValue_DETAILS_LastRow = WsMatrixCalc_LastRowIndex +3 + dt.Rows.Count + 2_x000d_
+End If_x000d_
+_x000d_
+_x000d_
+Dim SingleSegment_MidVecValueRange as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":G" &amp; SingleSegment_MidVecValue_DETAILS_LastRow-1)_x000d_
+SingleSegment_MidVecValueRange.Name="SingleSegment_MidVec"_x000d_
+_x000d_
+Dim SingleSegment_MidVecValueBorders as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":G" &amp; SingleSegment_MidVecValue_DETAILS_LastRow-1)_x000d_
+SingleSegment_MidVecValueBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+Dim SingleSegment_MidVecValueHeaders as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":G" &amp; WsMatrixCalc_LastRowIndex +4)_x000d_
+SingleSegment_MidVecValueHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
+_x000d_
+Dim WsMatrixCalc_SingleSegment_MidVecDataValues as CellRange=WsMatrixCalc.Range("E" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":G" &amp; SingleSegment_MidVecValue_DETAILS_LastRow-1)_x000d_
+WsMatrixCalc_SingleSegment_MidVecDataValues.NumberFormat="#,##"_x000d_
+_x000d_
+Dim subtotalColumnsList1 As New List(Of Integer)()_x000d_
+subtotalColumnsList1.Add(6) 'Subtotals claculated for column:G_x000d_
+WsMatrixCalc.Subtotal(SingleSegment_MidVecValueBorders, 3, subtotalColumnsList1, 9, "Total")_x000d_
+_x000d_
+WsMatrixCalc_DataRange= WsMatrixCalc.GetUsedRange()_x000d_
+WsMatrixCalc_LastRowIndex= WsMatrixCalc_DataRange.BottomRowIndex_x000d_
+_x000d_
+dt.reset()_x000d_
+_x000d_
+'Segment Risk x MidVec_x000d_
+WsMatrixCalc.MergeCells(WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +3 &amp;":G" &amp; WsMatrixCalc_LastRowIndex+3))_x000d_
+WsMatrixCalc.Cells("A" &amp; WsMatrixCalc_LastRowIndex +3).Value = "Segment Risk x MidVec for " &amp; rd_x000d_
+Cell = WsMatrixCalc.Cells("A" &amp; WsMatrixCalc_LastRowIndex +3)_x000d_
+cell.Fill.BackgroundColor = Color.Yellow_x000d_
+cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+cell.Font.Size = 14 _x000d_
+cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
+Dim WsMatrixCalc_cellA3Borders As DevExpress.Spreadsheet.Borders = cell.Borders_x000d_
+WsMatrixCalc_cellA3Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+QueryText = "SELECT [RowNr],[ColNr],[FieldValue1] as SEGMENT_A,[FieldValue2] as SEGMENT_B,[FieldValue3] as Segment_Risk,[FieldValue6] as Segment_Correlation,[ResultFieldValue] as Segment_Risk_MidVec FROM [CreditSpreadRisk_MatrixCorrelationCalculations] where CalculationDescription in ('Calculation_Segment_Risk_MidVec') and [RiskDate]='" &amp; rdsql &amp; "' order by ID asc" _x000d_
+da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
+dt = New System.Data.DataTable()_x000d_
+da.Fill(dt)_x000d_
+WsMatrixCalc.Import(dt, True, WsMatrixCalc_LastRowIndex +3, 0)_x000d_
+_x000d_
+Dim SegmentRisk_MidVecValue_DETAILS_LastRow as integer=0_x000d_
+If dt.Rows.Count &gt; 0 Then_x000d_
+SegmentRisk_MidVecValue_DETAILS_LastRow = WsMatrixCalc_LastRowIndex +3 + dt.Rows.Count + 2_x000d_
+End If_x000d_
+_x000d_
+Dim SegmentRisk_MidVecValueRange as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":G" &amp; SegmentRisk_MidVecValue_DETAILS_LastRow-1)_x000d_
+SegmentRisk_MidVecValueRange.Name="SegmentRisk_MidVec"_x000d_
+_x000d_
+Dim SegmentRisk_MidVecValueBorders as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":G" &amp; SegmentRisk_MidVecValue_DETAILS_LastRow-1)_x000d_
+SegmentRisk_MidVecValueBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+Dim SegmentRisk_MidVecValueHeaders as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":G" &amp; WsMatrixCalc_LastRowIndex +4)_x000d_
+SegmentRisk_MidVecValueHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
+_x000d_
+Dim WsMatrixCalc_SegmentRisk_MidVecDataValues as CellRange=WsMatrixCalc.Range("E" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":G" &amp; SegmentRisk_MidVecValue_DETAILS_LastRow-1)_x000d_
+WsMatrixCalc_SegmentRisk_MidVecDataValues.NumberFormat="#,##"_x000d_
+_x000d_
+Dim WsMatrixCalc_SegmentRisk_SegmentDataValues as CellRange=WsMatrixCalc.Range("F" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":F" &amp; SegmentRisk_MidVecValue_DETAILS_LastRow-1)_x000d_
+WsMatrixCalc_SegmentRisk_SegmentDataValues.NumberFormat="0.00 %"_x000d_
+_x000d_
+Dim subtotalColumnsList2 As New List(Of Integer)()_x000d_
+subtotalColumnsList2.Add(6) 'Subtotals claculated for column:G_x000d_
+WsMatrixCalc.Subtotal(SegmentRisk_MidVecValueBorders, 2, subtotalColumnsList1, 9, "Total")_x000d_
+_x000d_
+WsMatrixCalc_DataRange= WsMatrixCalc.GetUsedRange()_x000d_
+WsMatrixCalc_LastRowIndex= WsMatrixCalc_DataRange.BottomRowIndex_x000d_
+_x000d_
+dt.reset()_x000d_
+_x000d_
+'Final Calculation_x000d_
+WsMatrixCalc.MergeCells(WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +3 &amp;":D" &amp; WsMatrixCalc_LastRowIndex+3))_x000d_
+WsMatrixCalc.Cells("A" &amp; WsMatrixCalc_LastRowIndex +3).Value = "Final calculation for " &amp; rd_x000d_
+Cell = WsMatrixCalc.Cells("A" &amp; WsMatrixCalc_LastRowIndex +3)_x000d_
+cell.Fill.BackgroundColor = Color.Yellow_x000d_
+cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+cell.Font.Size = 14 _x000d_
+cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
+Dim WsMatrixCalc_cellA4Borders As DevExpress.Spreadsheet.Borders = cell.Borders_x000d_
+WsMatrixCalc_cellA4Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+QueryText = "SELECT [Segment],[SegmentRisk],[SegmentRisk_MidVec],Produkt=0 FROM [CreditSpreadRisk_Segments] where RiskDate='" &amp; rdsql &amp;"' order by Segment asc" _x000d_
+da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
+dt = New System.Data.DataTable()_x000d_
+da.Fill(dt)_x000d_
+WsMatrixCalc.Import(dt, True, WsMatrixCalc_LastRowIndex +3, 0)_x000d_
+_x000d_
+Dim FinalCalculation_DETAILS_LastRow as integer=0_x000d_
+If dt.Rows.Count &gt; 0 Then_x000d_
+FinalCalculation_DETAILS_LastRow = WsMatrixCalc_LastRowIndex +3 + dt.Rows.Count + 2_x000d_
+End If_x000d_
+_x000d_
+Dim FinalCalculationValueRange as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":D" &amp; FinalCalculation_DETAILS_LastRow-1)_x000d_
+FinalCalculationValueRange.Name="FinalCalculation"_x000d_
+_x000d_
+Dim FinalCalculationValueBorders as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":D" &amp; FinalCalculation_DETAILS_LastRow-1)_x000d_
+FinalCalculationValueBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+Dim FinalCalculationValueHeaders as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":D" &amp; WsMatrixCalc_LastRowIndex +4)_x000d_
+FinalCalculationValueHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
+_x000d_
+Dim WsMatrixCalc_FinalCalculation_MidVecDataValues as CellRange=WsMatrixCalc.Range("B" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":D" &amp; FinalCalculation_DETAILS_LastRow-1)_x000d_
+WsMatrixCalc_FinalCalculation_MidVecDataValues.NumberFormat="#,##"_x000d_
+_x000d_
+Dim WsMatrixCalc_TotalRange as CellRange=WsMatrixCalc.Range("A1:AZ20000")_x000d_
+WsMatrixCalc_TotalRange.AutoFitColumns()_x000d_
+_x000d_
+'++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
+_x000d_
+'Product Calculation_x000d_
+Dim FinalProduct_Range as CellRange=WsMatrixCalc.Range("D" &amp; WsMatrixCalc_LastRowIndex +5 &amp;":D" &amp; FinalCalculation_DETAILS_LastRow-1)_x000d_
+FinalProduct_Range.Formula = "=B" &amp; WsMatrixCalc_LastRowIndex +5 &amp;"*C" &amp; WsMatrixCalc_LastRowIndex +5 &amp;""_x000d_
+FinalProduct_Range.NumberFormat="#,##"_x000d_
+_x000d_
+'Product Sum Calculation_x000d_
+WsMatrixCalc.Cells("D" &amp; FinalCalculation_DETAILS_LastRow &amp;"").Formula = "=SUM(D" &amp; WsMatrixCalc_LastRowIndex +5 &amp;":D" &amp; FinalCalculation_DETAILS_LastRow-1 &amp; ")"_x000d_
+Cell = WsMatrixCalc.Cells("D" &amp; FinalCalculation_DETAILS_LastRow &amp;"")_x000d_
+cell.Font.Size = 11 _x000d_
+cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
+cell.NumberFormat="#,##"_x000d_
+cell.Name="SEGMENT_RISK_TOTAL"_x000d_
+_x000d_
+'++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
+'RESULT_x000d_
+WsCalc.MergeCells(WsCalc.Range("A1:Q1"))_x000d_
+WsCalc.Cells("A1").Value = "Portfolio Credit Spread Risk Calculation for " &amp; rd_x000d_
+Cell = WsCalc.Cells("A1")_x000d_
+cell.Fill.BackgroundColor = Color.Yellow_x000d_
+cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+cell.Font.Size = 14 _x000d_
+cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
+Dim cellA1Borders As DevExpress.Spreadsheet.Borders = cell.Borders_x000d_
+cellA1Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+_x000d_
+WsCalc.MergeCells(WsCalc.Range("A2:C2"))_x000d_
+WsCalc.Cells("A2").Value = "Securities Market Value (Sum)"_x000d_
+Cell = WsCalc.Cells("A2")_x000d_
+cell.Fill.BackgroundColor = Color.LightBlue_x000d_
+cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+cell.Font.Size = 12 _x000d_
+cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
+WsCalc.MergeCells(WsCalc.Range("A3:C3"))_x000d_
+_x000d_
+_x000d_
+WsCalc.MergeCells(WsCalc.Range("D2:G2"))_x000d_
+WsCalc.Cells("D2").Value = "Segment Risk x MidVec (Total)"_x000d_
+Cell = WsCalc.Cells("D2")_x000d_
+cell.Fill.BackgroundColor = Color.LightBlue_x000d_
+cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+cell.Font.Size = 12 _x000d_
+cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
+WsCalc.MergeCells(WsCalc.Range("D3:G3"))_x000d_
+WsCalc.Cells("D3").Formula="=MatrixCalculations!SEGMENT_RISK_TOTAL"_x000d_
+WsCalc.Cells("D3").NumberFormat="#,##"_x000d_
+_x000d_
+_x000d_
+Dim RangeA2_D3 as CellRange=WsCalc.Range("A2:G3")_x000d_
+RangeA2_D3.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+_x000d_
+WsCalc.MergeCells(WsCalc.Range("H2:L2"))_x000d_
+WsCalc.Cells("H2").Value = "Credit Spread Risk (Level1)"_x000d_
+Cell = WsCalc.Cells("H2")_x000d_
+cell.Fill.BackgroundColor = Color.LightBlue_x000d_
+cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+cell.Font.Size = 12 _x000d_
+cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
+_x000d_
+WsCalc.MergeCells(WsCalc.Range("H3:L3"))_x000d_
+WsCalc.Cells("H3").Formula="=SQRT(D3)"_x000d_
+WsCalc.Cells("H3").NumberFormat="#,##"_x000d_
+_x000d_
+WsCalc.MergeCells(WsCalc.Range("H4:L4"))_x000d_
+WsCalc.Cells("H4").Value = "relative to portfolio market value"_x000d_
+Cell = WsCalc.Cells("H4")_x000d_
+cell.Fill.BackgroundColor = Color.LightBlue_x000d_
+cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+cell.Font.Size = 12 _x000d_
+cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
+WsCalc.MergeCells(WsCalc.Range("H5:L5"))_x000d_
+WsCalc.Cells("H5").Formula="=H3/A3"_x000d_
+WsCalc.Cells("H5").NumberFormat="0.00 %"_x000d_
+_x000d_
+_x000d_
+WsCalc.MergeCells(WsCalc.Range("M2:Q2"))_x000d_
+WsCalc.Cells("M2").Value = "Credit Spread Risk (Level2)"_x000d_
+Cell = WsCalc.Cells("M2")_x000d_
+cell.Fill.BackgroundColor = Color.LightBlue_x000d_
+cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+cell.Font.Size = 12 _x000d_
+cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
+_x000d_
+WsCalc.MergeCells(WsCalc.Range("M3:Q3"))_x000d_
+WsCalc.Cells("M3").Formula = "=H3*INDEX(Parameter!Scaling_Level_Parameters;2;4)/INDEX(Parameter!Scaling_Level_Parameters;1;4)"_x000d_
+WsCalc.Cells("M3").NumberFormat="#,##"_x000d_
+_x000d_
+WsCalc.MergeCells(WsCalc.Range("M4:Q4"))_x000d_
+WsCalc.Cells("M4").Value = "relative to portfolio market value"_x000d_
+Cell = WsCalc.Cells("M4")_x000d_
+cell.Fill.BackgroundColor = Color.LightBlue_x000d_
+cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+cell.Font.Size = 12 _x000d_
+cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
+_x000d_
+WsCalc.MergeCells(WsCalc.Range("M5:Q5"))_x000d_
+WsCalc.Cells("M5").Formula="=M3/A3"_x000d_
+WsCalc.Cells("M5").NumberFormat="0.00 %"_x000d_
+_x000d_
+_x000d_
+Dim RangeH2_Q5 as CellRange=WsCalc.Range("H2:Q5")_x000d_
+RangeH2_Q5.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+'Load Bond Portfolio_x000d_
+WsCalc.MergeCells(WsCalc.Range("A7:M7"))_x000d_
+WsCalc.Cells("A7").Value = "Bond Portfolio on " &amp; rd_x000d_
+Cell = WsCalc.Cells("A7")_x000d_
+cell.Fill.BackgroundColor = Color.Yellow_x000d_
+cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
+cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
+cell.Font.Size = 11 _x000d_
+cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
+_x000d_
+_x000d_
+QueryText = "SELECT [ISIN],[EmmitentNr],[SecurityName],[Nominal],[MarketValueEUR],[ModifiedDuration],[CS01]=0,[Segment],[SpreadMovement],[Curve_Type],[SingleAssetRisk]=0,[K_Tenor],[MidVec] FROM [CreditSpreadRisk_BondPortfolio] where RiskDate='" &amp; rdsql &amp;"' order by ID asc" _x000d_
+da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
+dt = New System.Data.DataTable()_x000d_
+da.Fill(dt)_x000d_
+WsCalc.Import(dt, True, 7, 0)_x000d_
+_x000d_
+Dim BondPortfolio_LastRow As Integer = 0_x000d_
+_x000d_
+If dt.Rows.Count &gt; 0 Then_x000d_
+BondPortfolio_LastRow = dt.Rows.Count + 2_x000d_
+End If_x000d_
+_x000d_
+_x000d_
+Dim BondPortfolioRangeBorders as CellRange=WsCalc.Range("A7:M"&amp; BondPortfolio_LastRow+6)_x000d_
+BondPortfolioRangeBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
+_x000d_
+Dim BondPortfolioHeaders as CellRange=WsCalc.Range("A8:M8")_x000d_
+BondPortfolioHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
+_x000d_
+'Market Value_x000d_
+WsCalc.Cells("E" &amp; BondPortfolio_LastRow+7 &amp;"").Formula = "=SUM(E9:E" &amp; BondPortfolio_LastRow+6 &amp; ")"_x000d_
+Cell = WsCalc.Cells("E" &amp; BondPortfolio_LastRow+7 &amp;"")_x000d_
+cell.Font.Size = 11 _x000d_
+cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
+_x000d_
+Dim BondPortfolioTotalRange as CellRange=WsCalc.Range("D9:E"&amp; BondPortfolio_LastRow+7)_x000d_
+BondPortfolioTotalRange.NumberFormat="#,##"_x000d_
+_x000d_
+Dim MidVecTotalRange as CellRange=WsCalc.Range("M9:M"&amp; BondPortfolio_LastRow+7)_x000d_
+MidVecTotalRange.NumberFormat="#,##"_x000d_
+_x000d_
+WsCalc.Cells("A3").Formula = "=E" &amp; BondPortfolio_LastRow+7 &amp; ""_x000d_
+WsCalc.Cells("A3").NumberFormat="#,##"_x000d_
+_x000d_
+_x000d_
+'CS Calculation_x000d_
+Dim CS_Range as CellRange=WsCalc.Range("G9:G"&amp; BondPortfolio_LastRow+6)_x000d_
+CS_Range.Formula = "=E9*F9*0,01%"_x000d_
+CS_Range.NumberFormat="#,##"_x000d_
+_x000d_
+'Single Asset Risk_x000d_
+Dim SingleAssetRisk_Range as CellRange=WsCalc.Range("K9:K"&amp; BondPortfolio_LastRow+6)_x000d_
+SingleAssetRisk_Range.Formula = "=G9*I9"_x000d_
+SingleAssetRisk_Range.NumberFormat="#,##"_x000d_
+_x000d_
+Dim WsCalc_TotalRange as CellRange=WsCalc.Range("A1:AZ20000")_x000d_
+WsCalc_TotalRange.AutoFitColumns()_x000d_
+_x000d_
+workbook.SaveDocument(EXCEL_FILE_DIRECTORY, DevExpress.Spreadsheet.DocumentFormat.OpenXml)_x000d_
+_x000d_
+cmd.Connection.close()_x000d_
+_x000d_
+_x000d_
+_x000d_
+End Sub_x000d_
+_x000d_
+End Class</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t>Modification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyymmdd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -158,8 +872,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -433,6 +1148,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="14" max="15" width="11.42188" style="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -441,14 +1159,18 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>786</v>
-      </c>
+        <v>5920</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -457,6 +1179,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -498,10 +1222,10 @@
       <c r="M4" t="s">
         <v>17</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P4" t="s">
@@ -534,14 +1258,16 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>786</v>
+        <v>5920</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="P5" t="s">
         <v>29</v>
       </c>
@@ -551,23 +1277,14 @@
       <c r="R5" t="s">
         <v>31</v>
       </c>
-      <c r="S5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" t="s">
-        <v>31</v>
-      </c>
       <c r="V5" t="s">
         <v>32</v>
       </c>
       <c r="W5" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="1">
-        <v>45078</v>
+      <c r="X5" s="2">
+        <v>45213.003585335646</v>
       </c>
     </row>
     <row r="6">
@@ -577,6 +1294,8 @@
       <c r="B6" t="s">
         <v>35</v>
       </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -618,10 +1337,10 @@
       <c r="M7" t="s">
         <v>17</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P7" t="s">
@@ -651,6 +1370,276 @@
       <c r="X7" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>24145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8">
+        <v>5920</v>
+      </c>
+      <c r="R8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" s="2">
+        <v>45213.028325891202</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46">
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56">
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57">
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58">
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59">
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60">
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61">
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62">
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63">
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64">
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65">
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66">
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.3" footer="0.3"/>

--- a/EXCEL FILES/Export_SQL_Parameter_ExcelFile.xlsx
+++ b/EXCEL FILES/Export_SQL_Parameter_ExcelFile.xlsx
@@ -23,7 +23,7 @@
     <t>Exported_SQL_Parameter_Name</t>
   </si>
   <si>
-    <t>PortfolioCreditSpreadRisk_ExcelFile_creation</t>
+    <t>IMPORT_ECB_EXCHANGE_RATES</t>
   </si>
   <si>
     <t>Exported_SQL_Parameter_ID</t>
@@ -110,7 +110,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>EXCEL_FILES_CREATION</t>
+    <t>MANUAL_IMPORTS</t>
   </si>
   <si>
     <t>SQL</t>
@@ -119,7 +119,7 @@
     <t>Added</t>
   </si>
   <si>
-    <t>Paskalis</t>
+    <t>Yu</t>
   </si>
   <si>
     <t>Exported_Commands_from_SQL_Table</t>
@@ -131,18 +131,27 @@
     <t>Id_SQL_Parameters_Details</t>
   </si>
   <si>
-    <t>Create Portfolio Credit Spread Risk Excel File with formulas</t>
+    <t>Import the latest ECB Exchange Rates</t>
   </si>
   <si>
     <t xml:space="preserve">Imports System.Text_x000d_
+Imports System.Data_x000d_
+Imports System.Math_x000d_
 Imports System.Windows.Forms_x000d_
 Imports DevExpress.Spreadsheet_x000d_
-_x000d_
-Public Class CREDIT_SPREAD_RISK_DETAILS_WORKSHEET_x000d_
-    Inherits System.Windows.Forms.Form_x000d_
-_x000d_
+Imports System.Data.SqlClient_x000d_
+Imports System.ComponentModel_x000d_
+Imports System.IO_x000d_
+Imports System.Xml.XmlReader_x000d_
+Imports CrystalDecisions.Shared_x000d_
+Imports CrystalDecisions.CrystalReports.Engine_x000d_
+_x000d_
+Public Class ECB_EXCHANGE_RATES_IMPORT_x000d_
+Inherits System.Windows.Forms.Form_x000d_
+_x000d_
+   _x000d_
 Private Shared Sub VB_ScriptForExecution()_x000d_
-_x000d_
+ _x000d_
 Dim conndt As New SqlConnection_x000d_
 Dim da As New SqlDataAdapter_x000d_
 Dim dt As New System.Data.DataTable_x000d_
@@ -153,693 +162,96 @@
 Dim da3 As New SqlDataAdapter_x000d_
 Dim dt3 As New System.Data.DataTable_x000d_
 Dim QueryText As String = Nothing_x000d_
+Dim SqlCommandText as String=Nothing_x000d_
 _x000d_
 Dim conn As New SqlConnection_x000d_
 Dim cmd As New SqlCommand_x000d_
 _x000d_
 conn.ConnectionString = "Data Source=&lt;SQL_SERVER&gt;;Initial Catalog=&lt;SQL_DATABASE&gt;;Integrated Security=True;Connection Timeout=60"_x000d_
 cmd.Connection = conn_x000d_
-cmd.CommandTimeout = 60000_x000d_
-_x000d_
 cmd.Connection.Open()_x000d_
 _x000d_
 'Set Dates_x000d_
-Dim rdString as String="&lt;rd&gt;"_x000d_
-Dim rd As Date = CDate(rdString)_x000d_
-Dim rdsql as String="&lt;rdsql&gt;"_x000d_
-_x000d_
-Dim EXCEL_FILE_DIRECTORY as String="&lt;IMPORT_DIR_FILE&gt;"_x000d_
-_x000d_
-Dim workbook As New DevExpress.Spreadsheet.Workbook()_x000d_
-workbook.LoadDocument(EXCEL_FILE_DIRECTORY, DevExpress.Spreadsheet.DocumentFormat.Xlsx)_x000d_
-Dim worksheets As WorksheetCollection = workbook.Worksheets_x000d_
-Dim worksheet As DevExpress.Spreadsheet.Worksheet = workbook.Worksheets("Parameter")_x000d_
-Dim WsCorl As DevExpress.Spreadsheet.Worksheet = workbook.Worksheets("Correlations")_x000d_
-Dim WsCalc As DevExpress.Spreadsheet.Worksheet = workbook.Worksheets("Result")_x000d_
-_x000d_
-' Delete the "MatrixCalculations" worksheet from the workbook. _x000d_
-workbook.Worksheets.Remove(workbook.Worksheets("MatrixCalculations"))_x000d_
-workbook.Worksheets.Insert(1, "MatrixCalculations")_x000d_
-Dim WsMatrixCalc As DevExpress.Spreadsheet.Worksheet = workbook.Worksheets("MatrixCalculations")_x000d_
-_x000d_
-worksheet.Clear(worksheet("A1:AZ10000"))_x000d_
-worksheet.DefinedNames.Clear()_x000d_
-_x000d_
-WsCorl.Clear(WsCorl("A1:AZ10000"))_x000d_
-WsCorl.DefinedNames.Clear()_x000d_
-_x000d_
-WsCalc.Clear(WsCalc("A1:AZ10000"))_x000d_
-WsCalc.DefinedNames.Clear()_x000d_
-_x000d_
-WsMatrixCalc.Clear(WsMatrixCalc("A1:AZ10000"))_x000d_
-WsMatrixCalc.Columns.UnGroup(0, 5000, True)_x000d_
-WsMatrixCalc.Rows.UnGroup(0, 5000, True)_x000d_
-WsMatrixCalc.DefinedNames.Clear()_x000d_
-_x000d_
-workbook.Worksheets.ActiveWorksheet = workbook.Worksheets("Result")_x000d_
-_x000d_
-_x000d_
-'RISK WEIGHT PARAMETERS_x000d_
-worksheet.MergeCells(worksheet.Range("A1:G1"))_x000d_
-Worksheet.Cells("A1").Value = "Risk Weight - Rating Class - Sector"_x000d_
-Dim cell As Cell = worksheet.Cells("A1")_x000d_
-cell.Fill.BackgroundColor = Color.Yellow_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-_x000d_
-_x000d_
-QueryText = "SELECT [ParameterNr] as 'Nr.',[ParameterNameGeneral] as 'General Parameter Name',[ParameterName1] as 'Rating Class',[ParameterName2] as 'Sector',[ParameterValue1] as 'Segment',[ParameterValue2] as 'Risk Weight',[ParameterStatus] FROM [Parameter_CreditSpreadRisk_References] where [ParameterStatus] in ('Y') and ParameterNameGeneral in ('Risk_Weight_by_Issuer_Rating_Class_and_Sector') Order by ParameterNr asc" _x000d_
-da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
-dt = New System.Data.DataTable()_x000d_
-da.Fill(dt)_x000d_
-worksheet.Import(dt, True, 1, 0)_x000d_
-_x000d_
-Dim RiskWeight_DETAILS_LastRow As Integer = 0_x000d_
-If dt.Rows.Count &gt; 0 Then_x000d_
-RiskWeight_DETAILS_LastRow = dt.Rows.Count + 2_x000d_
+Dim rd As Date _x000d_
+Dim rdsql as String=Nothing_x000d_
+Dim currStr As String = Nothing_x000d_
+Dim currVstr As String = Nothing_x000d_
+Dim rate As Double = 0_x000d_
+_x000d_
+Dim xmlreader As New System.Xml.XmlTextReader("&lt;IMPORT_DIR_FILE&gt;")_x000d_
+_x000d_
+With xmlreader_x000d_
+While .Read_x000d_
+If .Name &lt;&gt; "" Then_x000d_
+_x000d_
+If .Name = "gesmes:name" Then currStr = .ReadString()_x000d_
+_x000d_
+For i As Integer = 0 To .AttributeCount - 1_x000d_
+If .Name = "Cube" Then_x000d_
+_x000d_
+    ' Prüfen, ob ein Attribut, dann Wert lesen_x000d_
+    If .AttributeCount = 1 Then_x000d_
+        .MoveToAttribute("time")_x000d_
+        rd = System.DateTime.Parse(.Value).ToShortDateString_x000d_
+        rdsql = rd.ToString("yyyMMdd")_x000d_
+        cmd.CommandText = "DELETE FROM [EXCHANGE RATES ECB] where [EXCHANGE RATE DATE]='" &amp; rdsql &amp; "'"_x000d_
+        cmd.ExecuteNonQuery()_x000d_
+_x000d_
+    End If_x000d_
+_x000d_
+' Prüfen, ob zwei Attribute, dann Wechselkurs lesen_x000d_
+    If .AttributeCount = 2 Then_x000d_
+        currStr = "" : currVstr = ""_x000d_
+        .MoveToAttribute("currency")_x000d_
+        currStr = .Value_x000d_
+        .MoveToAttribute("rate")_x000d_
+        currVstr = .Value.Replace(".", ",")_x000d_
+        rate = currVstr_x000d_
+cmd.CommandText = "INSERT INTO [EXCHANGE RATES ECB]([CURRENCY CODE],[CURRENCY RATE],[EXCHANGE RATE DATE]) Values('" &amp; currStr &amp; "'," &amp; Str(rate) &amp; ",'" &amp; rdsql &amp; "')"_x000d_
+cmd.ExecuteNonQuery()_x000d_
+_x000d_
+'Calculate YieldDaily_x000d_
+cmd.CommandText="DECLARE @RISKDATE Datetime='" &amp; rdsql &amp;"' DECLARE @CCY nvarchar(50)='" &amp; currStr &amp;"' DECLARE @MAX_RISKDATE Datetime=(Select [EXCHANGE RATE DATE] from [EXCHANGE RATES ECB] where [CURRENCY CODE]=@CCY and [EXCHANGE RATE DATE]=(Select MAX([EXCHANGE RATE DATE]) from [EXCHANGE RATES ECB] where [CURRENCY CODE]=@CCY and [EXCHANGE RATE DATE]&lt;@RISKDATE)) DECLARE @MAX_EXCHANGE_RATE float=(Select [CURRENCY RATE] from [EXCHANGE RATES ECB] where [CURRENCY CODE]=@CCY  and [EXCHANGE RATE DATE]=@MAX_RISKDATE) UPDATE [EXCHANGE RATES ECB] SET YieldDaily=ROUND(LOG([CURRENCY RATE]/@MAX_EXCHANGE_RATE,EXP(1)),10) where [CURRENCY CODE]=@CCY and [EXCHANGE RATE DATE]=@RISKDATE"_x000d_
+cmd.ExecuteNonQuery()_x000d_
+_x000d_
+_x000d_
+'RATE NAME DEFINE_x000d_
+cmd.CommandText = "UPDATE A SET A.[CURRENCY NAME]=B.[CURRENCY NAME] from [EXCHANGE RATES ECB] A INNER JOIN [CURRENCIES] B on A.[CURRENCY CODE]=B.[CURRENCY CODE] where A.[CURRENCY NAME] is NULL and [EXCHANGE RATE DATE]='" &amp; rdsql &amp;"'"_x000d_
+cmd.ExecuteNonQuery()_x000d_
+_x000d_
+_x000d_
+    End If_x000d_
+_x000d_
 End If_x000d_
 _x000d_
-_x000d_
-Dim RiskWeightRange as CellRange=worksheet.Range("A3:G"&amp; RiskWeight_DETAILS_LastRow)_x000d_
-RiskWeightRange.Name="RiskWeight_Parameters"_x000d_
-_x000d_
-Dim RiskWeightRangeBorders as CellRange=worksheet.Range("A1:G"&amp; RiskWeight_DETAILS_LastRow)_x000d_
-RiskWeightRangeBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-Dim RiskWeightHeaders as CellRange=worksheet.Range("A2:G2")_x000d_
-RiskWeightHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
-_x000d_
-Dim RiskWeightValues as CellRange=worksheet.Range("F3:F"&amp; RiskWeight_DETAILS_LastRow)_x000d_
-RiskWeightValues.NumberFormat="#,##"_x000d_
-_x000d_
-dt.reset()_x000d_
-RiskWeight_DETAILS_LastRow=0_x000d_
-'++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
-_x000d_
-'TENOR PARAMETERS_x000d_
-worksheet.MergeCells(worksheet.Range("I1:O1"))_x000d_
-Worksheet.Cells("I1").Value = "Tenor"_x000d_
-Cell = worksheet.Cells("I1")_x000d_
-cell.Fill.BackgroundColor = Color.Yellow_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-_x000d_
-_x000d_
-QueryText = "SELECT [ParameterNr] as 'Nr.',[ParameterNameGeneral] as 'General Parameter Name',[ParameterName1] as 'Tenor Period',[ParameterName2] as 'Tenor Period Description',[ParameterValue1] as 'Min',[ParameterValue2] as 'Max',[ParameterStatus] FROM [Parameter_CreditSpreadRisk_References] where [ParameterStatus] in ('Y') and ParameterNameGeneral in ('Tenor') Order by ParameterNr asc" _x000d_
-da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
-dt = New System.Data.DataTable()_x000d_
-da.Fill(dt)_x000d_
-worksheet.Import(dt, True, 1, 8)_x000d_
-_x000d_
-Dim DETAILS_LastRow As Integer = 0_x000d_
-If dt.Rows.Count &gt; 0 Then_x000d_
-DETAILS_LastRow = dt.Rows.Count + 2_x000d_
+Next_x000d_
 End If_x000d_
-_x000d_
-_x000d_
-Dim TenorRange as CellRange=worksheet.Range("I3:O" &amp; DETAILS_LastRow)_x000d_
-TenorRange.Name="Tenor_Parameters"_x000d_
-_x000d_
-Dim TenorRangeBorders as CellRange=worksheet.Range("I1:O"&amp; DETAILS_LastRow)_x000d_
-TenorRangeBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-Dim TenorHeaders as CellRange=worksheet.Range("I2:O2")_x000d_
-TenorHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
-_x000d_
-Dim TenorValues as CellRange=worksheet.Range("M3:N"&amp; DETAILS_LastRow)_x000d_
-TenorValues.NumberFormat="0.00"_x000d_
-_x000d_
-_x000d_
-dt.reset()_x000d_
-Dim TenorDetails_LastRow as integer=DETAILS_LastRow_x000d_
-DETAILS_LastRow=0_x000d_
-'+++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
-_x000d_
-'CORRELATIONS BETWEEN 2 RISK POSITIONS_x000d_
-worksheet.MergeCells(worksheet.Range("I" &amp; TenorDetails_LastRow+2 &amp;":O" &amp; TenorDetails_LastRow+2))_x000d_
-Worksheet.Cells("I" &amp; TenorDetails_LastRow+2).Value = "Correlation between two risk positions"_x000d_
-Cell = worksheet.Cells("I" &amp; TenorDetails_LastRow+2)_x000d_
-cell.Fill.BackgroundColor = Color.Yellow_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-_x000d_
-QueryText = "SELECT [ParameterNr] as 'Nr.',[ParameterNameGeneral] as 'General Parameter Name',[ParameterName1] as 'Correlation Type',[ParameterName2] as 'Correlation Type Description',[ParameterValue1] as 'Same',[ParameterValue2] as 'Not Same',[ParameterStatus] FROM [Parameter_CreditSpreadRisk_References] where [ParameterStatus] in ('Y') and ParameterNameGeneral in ('Correlation_between_two_risk_positions') Order by ParameterNr asc" _x000d_
-da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
-dt = New System.Data.DataTable()_x000d_
-da.Fill(dt)_x000d_
-worksheet.Import(dt, True, TenorDetails_LastRow+2, 8)_x000d_
-_x000d_
-If dt.Rows.Count &gt; 0 Then_x000d_
-DETAILS_LastRow = TenorDetails_LastRow+3 +  dt.Rows.Count_x000d_
-End If_x000d_
-_x000d_
-Dim CorrelationRiskPositionsRange as CellRange=worksheet.Range("I" &amp; TenorDetails_LastRow + 4 &amp;":O" &amp; DETAILS_LastRow)_x000d_
-CorrelationRiskPositionsRange.Name="CorrelationRiskPositions_Parameters"_x000d_
-_x000d_
-Dim CorrelationRiskPositionsBorders as CellRange=worksheet.Range("I" &amp; TenorDetails_LastRow + 2 &amp;":O" &amp; DETAILS_LastRow)_x000d_
-CorrelationRiskPositionsBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-Dim CorrelationRiskPositionsHeaders as CellRange=worksheet.Range("I10:O10")_x000d_
-CorrelationRiskPositionsHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
-_x000d_
-Dim CorrelationRiskPositionsValues as CellRange=worksheet.Range("M11:N"&amp; DETAILS_LastRow)_x000d_
-CorrelationRiskPositionsValues.NumberFormat="0.00 %"_x000d_
-_x000d_
-_x000d_
-dt.reset()_x000d_
-Dim CorrelationRiskPositions_LastRow as integer=DETAILS_LastRow_x000d_
-DETAILS_LastRow=0_x000d_
-_x000d_
-'++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
-'CURVE TYPES_x000d_
-worksheet.MergeCells(worksheet.Range("I" &amp; CorrelationRiskPositions_LastRow+2 &amp;":M" &amp; CorrelationRiskPositions_LastRow+2))_x000d_
-Worksheet.Cells("I" &amp; CorrelationRiskPositions_LastRow+2).Value = "Curve Types"_x000d_
-Cell = worksheet.Cells("I" &amp; CorrelationRiskPositions_LastRow+2)_x000d_
-cell.Fill.BackgroundColor = Color.Yellow_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-_x000d_
-QueryText = "SELECT [ParameterNr] as 'Nr.',[ParameterNameGeneral] as 'General Parameter Name',[ParameterName1] as 'Curve Type',[ParameterName2] as 'Curve Type Description',[ParameterStatus] FROM [Parameter_CreditSpreadRisk_References] where [ParameterStatus] in ('Y') and ParameterNameGeneral in ('Curve_Type') Order by ParameterNr asc" _x000d_
-da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
-dt = New System.Data.DataTable()_x000d_
-da.Fill(dt)_x000d_
-worksheet.Import(dt, True, CorrelationRiskPositions_LastRow+2, 8)_x000d_
-_x000d_
-If dt.Rows.Count &gt; 0 Then_x000d_
-DETAILS_LastRow = CorrelationRiskPositions_LastRow+3 +  dt.Rows.Count_x000d_
-End If_x000d_
-_x000d_
-Dim CurveTypeRange as CellRange=worksheet.Range("I" &amp; CorrelationRiskPositions_LastRow + 4 &amp;":M" &amp; DETAILS_LastRow)_x000d_
-CurveTypeRange.Name="CurveType_Parameters"_x000d_
-_x000d_
-Dim CurveTypeRangeBorders as CellRange=worksheet.Range("I" &amp; CorrelationRiskPositions_LastRow + 2 &amp;":M" &amp; DETAILS_LastRow)_x000d_
-CurveTypeRangeBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-Dim CurveTypeHeaders as CellRange=worksheet.Range("I16:M16")_x000d_
-CurveTypeHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
-_x000d_
-_x000d_
-dt.reset()_x000d_
-Dim CurveType_LastRow as integer=DETAILS_LastRow_x000d_
-DETAILS_LastRow=0_x000d_
-'++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
-'SCALING PARAMETERS_x000d_
-worksheet.MergeCells(worksheet.Range("I" &amp; CurveType_LastRow+2 &amp;":M" &amp; CurveType_LastRow+2))_x000d_
-Worksheet.Cells("I" &amp; CurveType_LastRow+2).Value = "Scaling Parameter Levels"_x000d_
-Cell = worksheet.Cells("I" &amp; CurveType_LastRow+2)_x000d_
-cell.Fill.BackgroundColor = Color.Yellow_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-_x000d_
-QueryText = "SELECT [ParameterNr] as 'Nr.',[ParameterNameGeneral] as 'General Parameter Name',[ParameterName1] as 'Scaling Level',[ParameterValue1] as 'Level Value',[ParameterStatus] FROM [Parameter_CreditSpreadRisk_References] where [ParameterStatus] in ('Y') and ParameterNameGeneral in ('Scaling_Parameter_Levels') Order by ParameterNr asc" _x000d_
-da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
-dt = New System.Data.DataTable()_x000d_
-da.Fill(dt)_x000d_
-worksheet.Import(dt, True, CurveType_LastRow+2, 8)_x000d_
-_x000d_
-If dt.Rows.Count &gt; 0 Then_x000d_
-DETAILS_LastRow = CurveType_LastRow+3 +  dt.Rows.Count_x000d_
-End If_x000d_
-_x000d_
-Dim ScalingParameterRange as CellRange=worksheet.Range("I" &amp; CurveType_LastRow + 4 &amp;":M" &amp; DETAILS_LastRow)_x000d_
-ScalingParameterRange.Name="Scaling_Level_Parameters"_x000d_
-_x000d_
-Dim ScalingParameterRangeBorders as CellRange=worksheet.Range("I" &amp; CurveType_LastRow + 2 &amp;":M" &amp; DETAILS_LastRow)_x000d_
-ScalingParameterRangeBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-Dim ScalingHeaders as CellRange=worksheet.Range("I22:M22")_x000d_
-ScalingHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
-_x000d_
-_x000d_
-dt.reset()_x000d_
-DETAILS_LastRow=0_x000d_
-_x000d_
-'++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
-worksheet.MergeCells(worksheet.Range("Q1:AG1"))_x000d_
-Worksheet.Cells("Q1").Value = "Segments Correlations"_x000d_
-Cell = worksheet.Cells("Q1")_x000d_
-cell.Fill.BackgroundColor = Color.Yellow_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-_x000d_
-QueryText = "SELECT [SeqNr] as 'Sequence Correlations',[SeqNr1] as '1',[SeqNr2] as '2',[SeqNr3] as '3',[SeqNr4] as '4',[SeqNr5] as '5',[SeqNr6] as '6',[SeqNr7] as '7',[SeqNr8] as '8',[SeqNr9] as '9',[SeqNr10] as '10',[SeqNr11] as '11',[SeqNr12] as '12',[SeqNr13] as '13',[SeqNr14] as '14',[SeqNr15] as '15',[SeqNr16] as '16' FROM [Parameter_CreditSpreadRisk_Correlations] ORDER BY SeqNr asc" _x000d_
-da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
-dt = New System.Data.DataTable()_x000d_
-da.Fill(dt)_x000d_
-worksheet.Import(dt, True, 1, 16)_x000d_
-_x000d_
-worksheet.Cells("R2").SetValueFromText("1", True)_x000d_
-worksheet.Cells("S2").SetValueFromText("2", True)_x000d_
-worksheet.Cells("T2").SetValueFromText("3", True)_x000d_
-worksheet.Cells("U2").SetValueFromText("4", True)_x000d_
-worksheet.Cells("V2").SetValueFromText("5", True)_x000d_
-worksheet.Cells("W2").SetValueFromText("6", True)_x000d_
-worksheet.Cells("X2").SetValueFromText("7", True)_x000d_
-worksheet.Cells("Y2").SetValueFromText("8", True)_x000d_
-worksheet.Cells("Z2").SetValueFromText("9", True)_x000d_
-worksheet.Cells("AA2").SetValueFromText("10", True)_x000d_
-worksheet.Cells("AB2").SetValueFromText("11", True)_x000d_
-worksheet.Cells("AC2").SetValueFromText("12", True)_x000d_
-worksheet.Cells("AD2").SetValueFromText("13", True)_x000d_
-worksheet.Cells("AE2").SetValueFromText("14", True)_x000d_
-worksheet.Cells("AF2").SetValueFromText("15", True)_x000d_
-worksheet.Cells("AG2").SetValueFromText("16", True)_x000d_
-_x000d_
-_x000d_
-If dt.Rows.Count &gt; 0 Then_x000d_
-DETAILS_LastRow = dt.Rows.Count + 2_x000d_
-End If_x000d_
-_x000d_
-_x000d_
-Dim SegmentsCorrelationsRange as CellRange=worksheet.Range("Q2:AG"&amp; DETAILS_LastRow)_x000d_
-SegmentsCorrelationsRange.Name="SegmentsCorrelations_Parameters"_x000d_
-_x000d_
-Dim SegmentCorrelationBorders as CellRange=worksheet.Range("Q1:AG"&amp; DETAILS_LastRow)_x000d_
-SegmentCorrelationBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-Dim SegmentCorrelationHeaders as CellRange=worksheet.Range("Q2:AG2")_x000d_
-SegmentCorrelationHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
-_x000d_
-Dim SegmentCorrelationRows as CellRange=worksheet.Range("Q2:Q"&amp; DETAILS_LastRow)_x000d_
-SegmentCorrelationRows.Fill.BackgroundColor=Color.LightBlue_x000d_
-_x000d_
-Dim SegmentCorrelationValues as CellRange=worksheet.Range("R3:AG"&amp; DETAILS_LastRow)_x000d_
-SegmentCorrelationValues.NumberFormat="0.00 %"_x000d_
-_x000d_
-_x000d_
-dt.reset()_x000d_
-DETAILS_LastRow=0_x000d_
-_x000d_
-Dim worksheet_TotalRange as CellRange=worksheet.Range("A1:AZ20000")_x000d_
-worksheet_TotalRange.AutoFitColumns()_x000d_
-_x000d_
-_x000d_
-'++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
-'CORRELATIONS DATA_x000d_
-WsCorl.MergeCells(WsCorl.Range("A1:N1"))_x000d_
-WsCorl.Cells("A1").Value = "Correlation Data for " &amp; rd_x000d_
-Cell = WsCorl.Cells("A1")_x000d_
-cell.Fill.BackgroundColor = Color.Yellow_x000d_
-cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-cell.Font.Size = 14 _x000d_
-cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
-Dim cellA1_Corl_Borders As DevExpress.Spreadsheet.Borders = cell.Borders_x000d_
-cellA1_Corl_Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-QueryText = "SELECT [EMMITENT_A] ,[EMMITENT_B],[ISIN_A],[ISIN_B],[TENOR_A],[TENOR_B],[CURVE_A],[CURVE_B],[SEGMENT_A],[SEGMENT_B],[Correlation_Name] as K_Name,[Correlation_Tenor] as K_Tenor,[Correlation_Basis] as K_Basis,[CorrelationValue] FROM [CreditSpreadRisk_SingleAssetsCorrelation] where RiskDate='" &amp; rdsql &amp;"' order by ID asc" _x000d_
-da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
-dt = New System.Data.DataTable()_x000d_
-da.Fill(dt)_x000d_
-WsCorl.Import(dt, True, 1, 0)_x000d_
-_x000d_
-Dim CorrelationsData_DETAILS_LastRow as integer=0_x000d_
-If dt.Rows.Count &gt; 0 Then_x000d_
-CorrelationsData_DETAILS_LastRow = dt.Rows.Count + 2_x000d_
-End If_x000d_
-_x000d_
-Dim CorrelationsDataRange as CellRange=WsCorl.Range("A3:N"&amp; CorrelationsData_DETAILS_LastRow)_x000d_
-CorrelationsDataRange.Name="CorrelationData"_x000d_
-_x000d_
-Dim CorrelationsDataBorders as CellRange=WsCorl.Range("A1:N"&amp; CorrelationsData_DETAILS_LastRow)_x000d_
-CorrelationsDataBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-Dim CorrelationsDataHeaders as CellRange=WsCorl.Range("A2:N2")_x000d_
-CorrelationsDataHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
-_x000d_
-Dim CorrelationsDataValues as CellRange=WsCorl.Range("K3:N"&amp; CorrelationsData_DETAILS_LastRow)_x000d_
-CorrelationsDataValues.NumberFormat="0.00 %"_x000d_
-_x000d_
-_x000d_
-dt.reset()_x000d_
-_x000d_
-Dim WsCorl_TotalRange as CellRange=WsCorl.Range("A1:AZ20000")_x000d_
-WsCorl_TotalRange.AutoFitColumns()_x000d_
-_x000d_
-_x000d_
-'+++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
-'MATRIX CALCULATIONS_x000d_
-'Single Asset x Correlation Value_x000d_
-WsMatrixCalc.MergeCells(WsMatrixCalc.Range("A1:H1"))_x000d_
-WsMatrixCalc.Cells("A1").Value = "Single Asset x Correlation Value for " &amp; rd_x000d_
-Cell = WsMatrixCalc.Cells("A1")_x000d_
-cell.Fill.BackgroundColor = Color.Yellow_x000d_
-cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-cell.Font.Size = 14 _x000d_
-cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
-Dim WsMatrixCalc_cellA1Borders As DevExpress.Spreadsheet.Borders = cell.Borders_x000d_
-WsMatrixCalc_cellA1Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-QueryText = "SELECT [RowNr],[ColNr],[FieldName2] as ISINS,[FieldValue1] as SingleAssetRisk,[FieldName5] as ISIN_A,[FieldName7] as ISIN_B,[FieldValue2] as CorrelationValue,[ResultFieldValue] as MidVec FROM [CreditSpreadRisk_MatrixCorrelationCalculations] where [CalculationDescription] in ('Calculation_Single_Asset_MidVec') and [RiskDate]='" &amp; rdsql &amp; "' order by ID asc" _x000d_
-da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
-dt = New System.Data.DataTable()_x000d_
-da.Fill(dt)_x000d_
-WsMatrixCalc.Import(dt, True, 1, 0)_x000d_
-_x000d_
-Dim SingleAsset_CorrelationValue_DETAILS_LastRow as integer=0_x000d_
-If dt.Rows.Count &gt; 0 Then_x000d_
-SingleAsset_CorrelationValue_DETAILS_LastRow = dt.Rows.Count + 2_x000d_
-End If_x000d_
-_x000d_
-Dim SingleAsset_CorrelationValueRange as CellRange=WsMatrixCalc.Range("A2:H"&amp; SingleAsset_CorrelationValue_DETAILS_LastRow)_x000d_
-SingleAsset_CorrelationValueRange.Name="SingleAsset_CorrelationValue"_x000d_
-_x000d_
-Dim SingleAsset_CorrelationValueBorders as CellRange=WsMatrixCalc.Range("A1:H"&amp; SingleAsset_CorrelationValue_DETAILS_LastRow)_x000d_
-SingleAsset_CorrelationValueBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-Dim SingleAsset_CorrelationValueHeaders as CellRange=WsMatrixCalc.Range("A2:H2")_x000d_
-SingleAsset_CorrelationValueHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
-_x000d_
-Dim WsMatrixCalc_SingleAssetDataValues as CellRange=WsMatrixCalc.Range("D3:D"&amp; SingleAsset_CorrelationValue_DETAILS_LastRow)_x000d_
-WsMatrixCalc_SingleAssetDataValues.NumberFormat="#,##"_x000d_
-_x000d_
-Dim WsMatrixCalc_CorrelationsDataValues as CellRange=WsMatrixCalc.Range("G3:G"&amp; SingleAsset_CorrelationValue_DETAILS_LastRow)_x000d_
-WsMatrixCalc_CorrelationsDataValues.NumberFormat="0.00 %"_x000d_
-_x000d_
-Dim WsMatrixCalc_MidVecValues as CellRange=WsMatrixCalc.Range("H3:H"&amp; SingleAsset_CorrelationValue_DETAILS_LastRow)_x000d_
-WsMatrixCalc_MidVecValues.NumberFormat="#,##"_x000d_
-_x000d_
-Dim subtotalColumnsList As New List(Of Integer)()_x000d_
-subtotalColumnsList.Add(7)_x000d_
-WsMatrixCalc.Subtotal(SingleAsset_CorrelationValueRange, 4, subtotalColumnsList, 9, "Total")_x000d_
-_x000d_
-Dim WsMatrixCalc_DataRange As CellRange = WsMatrixCalc.GetUsedRange()_x000d_
-Dim WsMatrixCalc_LastRowIndex As Integer = WsMatrixCalc_DataRange.BottomRowIndex_x000d_
-_x000d_
-dt.reset()_x000d_
-_x000d_
-'Single Segment x MidVec_x000d_
-WsMatrixCalc.MergeCells(WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +3 &amp;":G" &amp; WsMatrixCalc_LastRowIndex+3))_x000d_
-WsMatrixCalc.Cells("A" &amp; WsMatrixCalc_LastRowIndex +3).Value = "Single Segment x MidVec for " &amp; rd_x000d_
-Cell = WsMatrixCalc.Cells("A" &amp; WsMatrixCalc_LastRowIndex +3)_x000d_
-cell.Fill.BackgroundColor = Color.Yellow_x000d_
-cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-cell.Font.Size = 14 _x000d_
-cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
-Dim WsMatrixCalc_cellA2Borders As DevExpress.Spreadsheet.Borders = cell.Borders_x000d_
-WsMatrixCalc_cellA2Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-QueryText = "SELECT [RowNr],[ColNr],[FieldName2] as ISIN,[FieldValue1] as SEGMENT,[FieldValue2] as SingleAssetRisk,[FieldValue4] as SumMidVec,[ResultFieldValue] as SingleSegmentMidVec FROM [CreditSpreadRisk_MatrixCorrelationCalculations] where CalculationDescription in ('Calculation_Single_Segment_MidVec') and [RiskDate]='" &amp; rdsql &amp; "' order by ID asc" _x000d_
-da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
-dt = New System.Data.DataTable()_x000d_
-da.Fill(dt)_x000d_
-WsMatrixCalc.Import(dt, True, WsMatrixCalc_LastRowIndex +3, 0)_x000d_
-_x000d_
-Dim SingleSegment_MidVecValue_DETAILS_LastRow as integer=0_x000d_
-If dt.Rows.Count &gt; 0 Then_x000d_
-SingleSegment_MidVecValue_DETAILS_LastRow = WsMatrixCalc_LastRowIndex +3 + dt.Rows.Count + 2_x000d_
-End If_x000d_
-_x000d_
-_x000d_
-Dim SingleSegment_MidVecValueRange as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":G" &amp; SingleSegment_MidVecValue_DETAILS_LastRow-1)_x000d_
-SingleSegment_MidVecValueRange.Name="SingleSegment_MidVec"_x000d_
-_x000d_
-Dim SingleSegment_MidVecValueBorders as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":G" &amp; SingleSegment_MidVecValue_DETAILS_LastRow-1)_x000d_
-SingleSegment_MidVecValueBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-Dim SingleSegment_MidVecValueHeaders as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":G" &amp; WsMatrixCalc_LastRowIndex +4)_x000d_
-SingleSegment_MidVecValueHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
-_x000d_
-Dim WsMatrixCalc_SingleSegment_MidVecDataValues as CellRange=WsMatrixCalc.Range("E" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":G" &amp; SingleSegment_MidVecValue_DETAILS_LastRow-1)_x000d_
-WsMatrixCalc_SingleSegment_MidVecDataValues.NumberFormat="#,##"_x000d_
-_x000d_
-Dim subtotalColumnsList1 As New List(Of Integer)()_x000d_
-subtotalColumnsList1.Add(6) 'Subtotals claculated for column:G_x000d_
-WsMatrixCalc.Subtotal(SingleSegment_MidVecValueBorders, 3, subtotalColumnsList1, 9, "Total")_x000d_
-_x000d_
-WsMatrixCalc_DataRange= WsMatrixCalc.GetUsedRange()_x000d_
-WsMatrixCalc_LastRowIndex= WsMatrixCalc_DataRange.BottomRowIndex_x000d_
-_x000d_
-dt.reset()_x000d_
-_x000d_
-'Segment Risk x MidVec_x000d_
-WsMatrixCalc.MergeCells(WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +3 &amp;":G" &amp; WsMatrixCalc_LastRowIndex+3))_x000d_
-WsMatrixCalc.Cells("A" &amp; WsMatrixCalc_LastRowIndex +3).Value = "Segment Risk x MidVec for " &amp; rd_x000d_
-Cell = WsMatrixCalc.Cells("A" &amp; WsMatrixCalc_LastRowIndex +3)_x000d_
-cell.Fill.BackgroundColor = Color.Yellow_x000d_
-cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-cell.Font.Size = 14 _x000d_
-cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
-Dim WsMatrixCalc_cellA3Borders As DevExpress.Spreadsheet.Borders = cell.Borders_x000d_
-WsMatrixCalc_cellA3Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-QueryText = "SELECT [RowNr],[ColNr],[FieldValue1] as SEGMENT_A,[FieldValue2] as SEGMENT_B,[FieldValue3] as Segment_Risk,[FieldValue6] as Segment_Correlation,[ResultFieldValue] as Segment_Risk_MidVec FROM [CreditSpreadRisk_MatrixCorrelationCalculations] where CalculationDescription in ('Calculation_Segment_Risk_MidVec') and [RiskDate]='" &amp; rdsql &amp; "' order by ID asc" _x000d_
-da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
-dt = New System.Data.DataTable()_x000d_
-da.Fill(dt)_x000d_
-WsMatrixCalc.Import(dt, True, WsMatrixCalc_LastRowIndex +3, 0)_x000d_
-_x000d_
-Dim SegmentRisk_MidVecValue_DETAILS_LastRow as integer=0_x000d_
-If dt.Rows.Count &gt; 0 Then_x000d_
-SegmentRisk_MidVecValue_DETAILS_LastRow = WsMatrixCalc_LastRowIndex +3 + dt.Rows.Count + 2_x000d_
-End If_x000d_
-_x000d_
-Dim SegmentRisk_MidVecValueRange as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":G" &amp; SegmentRisk_MidVecValue_DETAILS_LastRow-1)_x000d_
-SegmentRisk_MidVecValueRange.Name="SegmentRisk_MidVec"_x000d_
-_x000d_
-Dim SegmentRisk_MidVecValueBorders as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":G" &amp; SegmentRisk_MidVecValue_DETAILS_LastRow-1)_x000d_
-SegmentRisk_MidVecValueBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-Dim SegmentRisk_MidVecValueHeaders as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":G" &amp; WsMatrixCalc_LastRowIndex +4)_x000d_
-SegmentRisk_MidVecValueHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
-_x000d_
-Dim WsMatrixCalc_SegmentRisk_MidVecDataValues as CellRange=WsMatrixCalc.Range("E" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":G" &amp; SegmentRisk_MidVecValue_DETAILS_LastRow-1)_x000d_
-WsMatrixCalc_SegmentRisk_MidVecDataValues.NumberFormat="#,##"_x000d_
-_x000d_
-Dim WsMatrixCalc_SegmentRisk_SegmentDataValues as CellRange=WsMatrixCalc.Range("F" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":F" &amp; SegmentRisk_MidVecValue_DETAILS_LastRow-1)_x000d_
-WsMatrixCalc_SegmentRisk_SegmentDataValues.NumberFormat="0.00 %"_x000d_
-_x000d_
-Dim subtotalColumnsList2 As New List(Of Integer)()_x000d_
-subtotalColumnsList2.Add(6) 'Subtotals claculated for column:G_x000d_
-WsMatrixCalc.Subtotal(SegmentRisk_MidVecValueBorders, 2, subtotalColumnsList1, 9, "Total")_x000d_
-_x000d_
-WsMatrixCalc_DataRange= WsMatrixCalc.GetUsedRange()_x000d_
-WsMatrixCalc_LastRowIndex= WsMatrixCalc_DataRange.BottomRowIndex_x000d_
-_x000d_
-dt.reset()_x000d_
-_x000d_
-'Final Calculation_x000d_
-WsMatrixCalc.MergeCells(WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +3 &amp;":D" &amp; WsMatrixCalc_LastRowIndex+3))_x000d_
-WsMatrixCalc.Cells("A" &amp; WsMatrixCalc_LastRowIndex +3).Value = "Final calculation for " &amp; rd_x000d_
-Cell = WsMatrixCalc.Cells("A" &amp; WsMatrixCalc_LastRowIndex +3)_x000d_
-cell.Fill.BackgroundColor = Color.Yellow_x000d_
-cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-cell.Font.Size = 14 _x000d_
-cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
-Dim WsMatrixCalc_cellA4Borders As DevExpress.Spreadsheet.Borders = cell.Borders_x000d_
-WsMatrixCalc_cellA4Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-QueryText = "SELECT [Segment],[SegmentRisk],[SegmentRisk_MidVec],Produkt=0 FROM [CreditSpreadRisk_Segments] where RiskDate='" &amp; rdsql &amp;"' order by Segment asc" _x000d_
-da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
-dt = New System.Data.DataTable()_x000d_
-da.Fill(dt)_x000d_
-WsMatrixCalc.Import(dt, True, WsMatrixCalc_LastRowIndex +3, 0)_x000d_
-_x000d_
-Dim FinalCalculation_DETAILS_LastRow as integer=0_x000d_
-If dt.Rows.Count &gt; 0 Then_x000d_
-FinalCalculation_DETAILS_LastRow = WsMatrixCalc_LastRowIndex +3 + dt.Rows.Count + 2_x000d_
-End If_x000d_
-_x000d_
-Dim FinalCalculationValueRange as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":D" &amp; FinalCalculation_DETAILS_LastRow-1)_x000d_
-FinalCalculationValueRange.Name="FinalCalculation"_x000d_
-_x000d_
-Dim FinalCalculationValueBorders as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":D" &amp; FinalCalculation_DETAILS_LastRow-1)_x000d_
-FinalCalculationValueBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-Dim FinalCalculationValueHeaders as CellRange=WsMatrixCalc.Range("A" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":D" &amp; WsMatrixCalc_LastRowIndex +4)_x000d_
-FinalCalculationValueHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
-_x000d_
-Dim WsMatrixCalc_FinalCalculation_MidVecDataValues as CellRange=WsMatrixCalc.Range("B" &amp; WsMatrixCalc_LastRowIndex +4 &amp;":D" &amp; FinalCalculation_DETAILS_LastRow-1)_x000d_
-WsMatrixCalc_FinalCalculation_MidVecDataValues.NumberFormat="#,##"_x000d_
-_x000d_
-Dim WsMatrixCalc_TotalRange as CellRange=WsMatrixCalc.Range("A1:AZ20000")_x000d_
-WsMatrixCalc_TotalRange.AutoFitColumns()_x000d_
-_x000d_
-'++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
-_x000d_
-'Product Calculation_x000d_
-Dim FinalProduct_Range as CellRange=WsMatrixCalc.Range("D" &amp; WsMatrixCalc_LastRowIndex +5 &amp;":D" &amp; FinalCalculation_DETAILS_LastRow-1)_x000d_
-FinalProduct_Range.Formula = "=B" &amp; WsMatrixCalc_LastRowIndex +5 &amp;"*C" &amp; WsMatrixCalc_LastRowIndex +5 &amp;""_x000d_
-FinalProduct_Range.NumberFormat="#,##"_x000d_
-_x000d_
-'Product Sum Calculation_x000d_
-WsMatrixCalc.Cells("D" &amp; FinalCalculation_DETAILS_LastRow &amp;"").Formula = "=SUM(D" &amp; WsMatrixCalc_LastRowIndex +5 &amp;":D" &amp; FinalCalculation_DETAILS_LastRow-1 &amp; ")"_x000d_
-Cell = WsMatrixCalc.Cells("D" &amp; FinalCalculation_DETAILS_LastRow &amp;"")_x000d_
-cell.Font.Size = 11 _x000d_
-cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
-cell.NumberFormat="#,##"_x000d_
-cell.Name="SEGMENT_RISK_TOTAL"_x000d_
-_x000d_
-'++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++_x000d_
-'RESULT_x000d_
-WsCalc.MergeCells(WsCalc.Range("A1:Q1"))_x000d_
-WsCalc.Cells("A1").Value = "Portfolio Credit Spread Risk Calculation for " &amp; rd_x000d_
-Cell = WsCalc.Cells("A1")_x000d_
-cell.Fill.BackgroundColor = Color.Yellow_x000d_
-cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-cell.Font.Size = 14 _x000d_
-cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
-Dim cellA1Borders As DevExpress.Spreadsheet.Borders = cell.Borders_x000d_
-cellA1Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-_x000d_
-WsCalc.MergeCells(WsCalc.Range("A2:C2"))_x000d_
-WsCalc.Cells("A2").Value = "Securities Market Value (Sum)"_x000d_
-Cell = WsCalc.Cells("A2")_x000d_
-cell.Fill.BackgroundColor = Color.LightBlue_x000d_
-cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-cell.Font.Size = 12 _x000d_
-cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
-WsCalc.MergeCells(WsCalc.Range("A3:C3"))_x000d_
-_x000d_
-_x000d_
-WsCalc.MergeCells(WsCalc.Range("D2:G2"))_x000d_
-WsCalc.Cells("D2").Value = "Segment Risk x MidVec (Total)"_x000d_
-Cell = WsCalc.Cells("D2")_x000d_
-cell.Fill.BackgroundColor = Color.LightBlue_x000d_
-cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-cell.Font.Size = 12 _x000d_
-cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
-WsCalc.MergeCells(WsCalc.Range("D3:G3"))_x000d_
-WsCalc.Cells("D3").Formula="=MatrixCalculations!SEGMENT_RISK_TOTAL"_x000d_
-WsCalc.Cells("D3").NumberFormat="#,##"_x000d_
-_x000d_
-_x000d_
-Dim RangeA2_D3 as CellRange=WsCalc.Range("A2:G3")_x000d_
-RangeA2_D3.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-_x000d_
-WsCalc.MergeCells(WsCalc.Range("H2:L2"))_x000d_
-WsCalc.Cells("H2").Value = "Credit Spread Risk (Level1)"_x000d_
-Cell = WsCalc.Cells("H2")_x000d_
-cell.Fill.BackgroundColor = Color.LightBlue_x000d_
-cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-cell.Font.Size = 12 _x000d_
-cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
-_x000d_
-WsCalc.MergeCells(WsCalc.Range("H3:L3"))_x000d_
-WsCalc.Cells("H3").Formula="=SQRT(D3)"_x000d_
-WsCalc.Cells("H3").NumberFormat="#,##"_x000d_
-_x000d_
-WsCalc.MergeCells(WsCalc.Range("H4:L4"))_x000d_
-WsCalc.Cells("H4").Value = "relative to portfolio market value"_x000d_
-Cell = WsCalc.Cells("H4")_x000d_
-cell.Fill.BackgroundColor = Color.LightBlue_x000d_
-cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-cell.Font.Size = 12 _x000d_
-cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
-WsCalc.MergeCells(WsCalc.Range("H5:L5"))_x000d_
-WsCalc.Cells("H5").Formula="=H3/A3"_x000d_
-WsCalc.Cells("H5").NumberFormat="0.00 %"_x000d_
-_x000d_
-_x000d_
-WsCalc.MergeCells(WsCalc.Range("M2:Q2"))_x000d_
-WsCalc.Cells("M2").Value = "Credit Spread Risk (Level2)"_x000d_
-Cell = WsCalc.Cells("M2")_x000d_
-cell.Fill.BackgroundColor = Color.LightBlue_x000d_
-cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-cell.Font.Size = 12 _x000d_
-cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
-_x000d_
-WsCalc.MergeCells(WsCalc.Range("M3:Q3"))_x000d_
-WsCalc.Cells("M3").Formula = "=H3*INDEX(Parameter!Scaling_Level_Parameters;2;4)/INDEX(Parameter!Scaling_Level_Parameters;1;4)"_x000d_
-WsCalc.Cells("M3").NumberFormat="#,##"_x000d_
-_x000d_
-WsCalc.MergeCells(WsCalc.Range("M4:Q4"))_x000d_
-WsCalc.Cells("M4").Value = "relative to portfolio market value"_x000d_
-Cell = WsCalc.Cells("M4")_x000d_
-cell.Fill.BackgroundColor = Color.LightBlue_x000d_
-cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-cell.Font.Size = 12 _x000d_
-cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
-_x000d_
-WsCalc.MergeCells(WsCalc.Range("M5:Q5"))_x000d_
-WsCalc.Cells("M5").Formula="=M3/A3"_x000d_
-WsCalc.Cells("M5").NumberFormat="0.00 %"_x000d_
-_x000d_
-_x000d_
-Dim RangeH2_Q5 as CellRange=WsCalc.Range("H2:Q5")_x000d_
-RangeH2_Q5.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-'Load Bond Portfolio_x000d_
-WsCalc.MergeCells(WsCalc.Range("A7:M7"))_x000d_
-WsCalc.Cells("A7").Value = "Bond Portfolio on " &amp; rd_x000d_
-Cell = WsCalc.Cells("A7")_x000d_
-cell.Fill.BackgroundColor = Color.Yellow_x000d_
-cell.Alignment.Vertical = SpreadsheetVerticalAlignment.Center_x000d_
-cell.Alignment.Horizontal = SpreadsheetHorizontalAlignment.Center_x000d_
-cell.Font.Size = 11 _x000d_
-cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
-_x000d_
-_x000d_
-QueryText = "SELECT [ISIN],[EmmitentNr],[SecurityName],[Nominal],[MarketValueEUR],[ModifiedDuration],[CS01]=0,[Segment],[SpreadMovement],[Curve_Type],[SingleAssetRisk]=0,[K_Tenor],[MidVec] FROM [CreditSpreadRisk_BondPortfolio] where RiskDate='" &amp; rdsql &amp;"' order by ID asc" _x000d_
-da = New SqlDataAdapter(QueryText.Trim(), conn)_x000d_
-dt = New System.Data.DataTable()_x000d_
-da.Fill(dt)_x000d_
-WsCalc.Import(dt, True, 7, 0)_x000d_
-_x000d_
-Dim BondPortfolio_LastRow As Integer = 0_x000d_
-_x000d_
-If dt.Rows.Count &gt; 0 Then_x000d_
-BondPortfolio_LastRow = dt.Rows.Count + 2_x000d_
-End If_x000d_
-_x000d_
-_x000d_
-Dim BondPortfolioRangeBorders as CellRange=WsCalc.Range("A7:M"&amp; BondPortfolio_LastRow+6)_x000d_
-BondPortfolioRangeBorders.Borders.SetAllBorders(Color.Black, BorderLineStyle.Thin)_x000d_
-_x000d_
-Dim BondPortfolioHeaders as CellRange=WsCalc.Range("A8:M8")_x000d_
-BondPortfolioHeaders.Fill.BackgroundColor=Color.LightBlue_x000d_
-_x000d_
-'Market Value_x000d_
-WsCalc.Cells("E" &amp; BondPortfolio_LastRow+7 &amp;"").Formula = "=SUM(E9:E" &amp; BondPortfolio_LastRow+6 &amp; ")"_x000d_
-Cell = WsCalc.Cells("E" &amp; BondPortfolio_LastRow+7 &amp;"")_x000d_
-cell.Font.Size = 11 _x000d_
-cell.Font.FontStyle = SpreadsheetFontStyle.Bold_x000d_
-_x000d_
-Dim BondPortfolioTotalRange as CellRange=WsCalc.Range("D9:E"&amp; BondPortfolio_LastRow+7)_x000d_
-BondPortfolioTotalRange.NumberFormat="#,##"_x000d_
-_x000d_
-Dim MidVecTotalRange as CellRange=WsCalc.Range("M9:M"&amp; BondPortfolio_LastRow+7)_x000d_
-MidVecTotalRange.NumberFormat="#,##"_x000d_
-_x000d_
-WsCalc.Cells("A3").Formula = "=E" &amp; BondPortfolio_LastRow+7 &amp; ""_x000d_
-WsCalc.Cells("A3").NumberFormat="#,##"_x000d_
-_x000d_
-_x000d_
-'CS Calculation_x000d_
-Dim CS_Range as CellRange=WsCalc.Range("G9:G"&amp; BondPortfolio_LastRow+6)_x000d_
-CS_Range.Formula = "=E9*F9*0,01%"_x000d_
-CS_Range.NumberFormat="#,##"_x000d_
-_x000d_
-'Single Asset Risk_x000d_
-Dim SingleAssetRisk_Range as CellRange=WsCalc.Range("K9:K"&amp; BondPortfolio_LastRow+6)_x000d_
-SingleAssetRisk_Range.Formula = "=G9*I9"_x000d_
-SingleAssetRisk_Range.NumberFormat="#,##"_x000d_
-_x000d_
-Dim WsCalc_TotalRange as CellRange=WsCalc.Range("A1:AZ20000")_x000d_
-WsCalc_TotalRange.AutoFitColumns()_x000d_
-_x000d_
-workbook.SaveDocument(EXCEL_FILE_DIRECTORY, DevExpress.Spreadsheet.DocumentFormat.OpenXml)_x000d_
-_x000d_
+End While_x000d_
+End With_x000d_
 cmd.Connection.close()_x000d_
 _x000d_
-_x000d_
-_x000d_
 End Sub_x000d_
-_x000d_
-End Class</t>
+End Class_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+_x000d_
+</t>
   </si>
   <si>
     <t>VB</t>
   </si>
   <si>
     <t>Modification</t>
+  </si>
+  <si>
+    <t>Paskalis</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5920</v>
+        <v>901</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1258,13 +670,13 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>5920</v>
+        <v>901</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1284,7 +696,7 @@
         <v>33</v>
       </c>
       <c r="X5" s="2">
-        <v>45213.003585335646</v>
+        <v>45177.869130405088</v>
       </c>
     </row>
     <row r="6">
@@ -1373,7 +785,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>24145</v>
+        <v>14060</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -1390,7 +802,7 @@
         <v>29</v>
       </c>
       <c r="Q8">
-        <v>5920</v>
+        <v>901</v>
       </c>
       <c r="R8" t="s">
         <v>39</v>
@@ -1399,10 +811,10 @@
         <v>40</v>
       </c>
       <c r="W8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="X8" s="2">
-        <v>45213.028325891202</v>
+        <v>45263.162957175926</v>
       </c>
     </row>
     <row r="9">
